--- a/timetabling_GA/results/HK2_CT01/TKB_HocKy_GiangVien.xlsx
+++ b/timetabling_GA/results/HK2_CT01/TKB_HocKy_GiangVien.xlsx
@@ -515,7 +515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,8 +607,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -618,30 +618,23 @@
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -650,24 +643,38 @@
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -675,32 +682,32 @@
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -710,8 +717,8 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
+          <t>Lớp: CL01
+Môn: Thuật toán
 Phòng: R101
 (Lý thuyết)</t>
         </is>
@@ -725,8 +732,8 @@
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
@@ -735,44 +742,18 @@
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="7" t="inlineStr"/>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -791,7 +772,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -883,8 +864,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -894,30 +875,23 @@
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -926,24 +900,38 @@
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -951,32 +939,32 @@
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -986,8 +974,8 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
+          <t>Lớp: CL01
+Môn: Thuật toán
 Phòng: R101
 (Lý thuyết)</t>
         </is>
@@ -1001,8 +989,8 @@
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
@@ -1011,44 +999,18 @@
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="7" t="inlineStr"/>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1067,7 +1029,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1159,8 +1121,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1170,30 +1132,23 @@
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -1202,24 +1157,38 @@
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -1227,32 +1196,32 @@
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -1262,8 +1231,8 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
+          <t>Lớp: CL01
+Môn: Thuật toán
 Phòng: R101
 (Lý thuyết)</t>
         </is>
@@ -1277,8 +1246,8 @@
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
@@ -1287,44 +1256,18 @@
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="7" t="inlineStr"/>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1343,7 +1286,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1435,8 +1378,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1446,30 +1389,23 @@
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -1478,24 +1414,38 @@
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -1503,32 +1453,32 @@
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -1538,8 +1488,8 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
+          <t>Lớp: CL01
+Môn: Thuật toán
 Phòng: R101
 (Lý thuyết)</t>
         </is>
@@ -1553,8 +1503,8 @@
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
@@ -1563,44 +1513,18 @@
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="7" t="inlineStr"/>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1619,7 +1543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1711,8 +1635,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1722,30 +1646,23 @@
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -1754,24 +1671,38 @@
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -1779,32 +1710,32 @@
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -1814,8 +1745,8 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
+          <t>Lớp: CL01
+Môn: Thuật toán
 Phòng: R101
 (Lý thuyết)</t>
         </is>
@@ -1829,8 +1760,8 @@
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
@@ -1839,44 +1770,18 @@
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="7" t="inlineStr"/>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1895,7 +1800,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1987,8 +1892,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1998,30 +1903,23 @@
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -2030,24 +1928,38 @@
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -2055,32 +1967,32 @@
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -2090,8 +2002,8 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
+          <t>Lớp: CL01
+Môn: Thuật toán
 Phòng: R101
 (Lý thuyết)</t>
         </is>
@@ -2105,8 +2017,8 @@
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
@@ -2115,44 +2027,18 @@
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="7" t="inlineStr"/>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2171,7 +2057,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2263,8 +2149,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2274,30 +2160,23 @@
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -2306,24 +2185,38 @@
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -2331,32 +2224,32 @@
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -2366,8 +2259,8 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
+          <t>Lớp: CL01
+Môn: Thuật toán
 Phòng: R101
 (Lý thuyết)</t>
         </is>
@@ -2381,8 +2274,8 @@
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
@@ -2391,44 +2284,18 @@
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="7" t="inlineStr"/>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2447,7 +2314,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2539,8 +2406,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2550,30 +2417,23 @@
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -2582,24 +2442,38 @@
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -2607,32 +2481,32 @@
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -2642,8 +2516,8 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
+          <t>Lớp: CL01
+Môn: Thuật toán
 Phòng: R101
 (Lý thuyết)</t>
         </is>
@@ -2657,8 +2531,8 @@
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
@@ -2667,44 +2541,18 @@
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="7" t="inlineStr"/>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2723,7 +2571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2815,8 +2663,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2826,30 +2674,23 @@
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -2858,24 +2699,38 @@
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -2883,32 +2738,32 @@
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -2918,8 +2773,8 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
+          <t>Lớp: CL01
+Môn: Thuật toán
 Phòng: R101
 (Lý thuyết)</t>
         </is>
@@ -2933,8 +2788,8 @@
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
@@ -2943,44 +2798,18 @@
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="7" t="inlineStr"/>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2999,7 +2828,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3091,8 +2920,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -3102,30 +2931,23 @@
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -3134,24 +2956,38 @@
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -3159,32 +2995,32 @@
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -3194,8 +3030,8 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
+          <t>Lớp: CL01
+Môn: Thuật toán
 Phòng: R101
 (Lý thuyết)</t>
         </is>
@@ -3209,8 +3045,8 @@
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
@@ -3219,44 +3055,18 @@
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="7" t="inlineStr"/>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3275,7 +3085,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3367,8 +3177,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -3378,30 +3188,23 @@
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -3410,24 +3213,38 @@
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -3435,32 +3252,32 @@
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -3470,8 +3287,8 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
+          <t>Lớp: CL01
+Môn: Thuật toán
 Phòng: R101
 (Lý thuyết)</t>
         </is>
@@ -3485,8 +3302,8 @@
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
@@ -3495,44 +3312,18 @@
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="7" t="inlineStr"/>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3551,7 +3342,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3643,8 +3434,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -3654,30 +3445,23 @@
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -3686,24 +3470,38 @@
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -3711,32 +3509,32 @@
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -3746,8 +3544,8 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
+          <t>Lớp: CL01
+Môn: Thuật toán
 Phòng: R101
 (Lý thuyết)</t>
         </is>
@@ -3761,8 +3559,8 @@
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
@@ -3771,44 +3569,18 @@
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="7" t="inlineStr"/>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3827,7 +3599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3919,8 +3691,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -3930,30 +3702,23 @@
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -3962,24 +3727,38 @@
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -3987,32 +3766,32 @@
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -4022,8 +3801,8 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
+          <t>Lớp: CL01
+Môn: Thuật toán
 Phòng: R101
 (Lý thuyết)</t>
         </is>
@@ -4037,8 +3816,8 @@
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
@@ -4047,44 +3826,18 @@
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="7" t="inlineStr"/>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4103,7 +3856,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4195,8 +3948,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -4206,30 +3959,23 @@
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -4238,24 +3984,38 @@
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -4263,32 +4023,32 @@
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -4298,8 +4058,8 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
+          <t>Lớp: CL01
+Môn: Thuật toán
 Phòng: R101
 (Lý thuyết)</t>
         </is>
@@ -4313,8 +4073,8 @@
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
@@ -4323,44 +4083,18 @@
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="7" t="inlineStr"/>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4379,7 +4113,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4471,8 +4205,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -4482,30 +4216,23 @@
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -4514,24 +4241,38 @@
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -4539,32 +4280,32 @@
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -4574,8 +4315,8 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
+          <t>Lớp: CL01
+Môn: Thuật toán
 Phòng: R101
 (Lý thuyết)</t>
         </is>
@@ -4589,8 +4330,8 @@
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
@@ -4599,44 +4340,18 @@
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="7" t="inlineStr"/>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/timetabling_GA/results/HK2_CT01/TKB_HocKy_GiangVien.xlsx
+++ b/timetabling_GA/results/HK2_CT01/TKB_HocKy_GiangVien.xlsx
@@ -515,7 +515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,109 +607,137 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Thuật toán
 Phòng: LAB01
 (Thực hành)</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
 Môn: Thuật toán
 Phòng: LAB01
 (Thực hành)</t>
         </is>
       </c>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>C2
 (15:00-17:00)</t>
         </is>
       </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -717,41 +745,88 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: R101
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
         <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: LAB01
-(Thực hành)</t>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
         </is>
       </c>
     </row>
@@ -772,7 +847,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -864,109 +939,137 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Thuật toán
 Phòng: LAB01
 (Thực hành)</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
 Môn: Thuật toán
 Phòng: LAB01
 (Thực hành)</t>
         </is>
       </c>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>C2
 (15:00-17:00)</t>
         </is>
       </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -974,41 +1077,88 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: R101
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
         <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: LAB01
-(Thực hành)</t>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1179,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1121,109 +1271,137 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Thuật toán
 Phòng: LAB01
 (Thực hành)</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
 Môn: Thuật toán
 Phòng: LAB01
 (Thực hành)</t>
         </is>
       </c>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>C2
 (15:00-17:00)</t>
         </is>
       </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -1231,41 +1409,88 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: R101
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
         <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: LAB01
-(Thực hành)</t>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
         </is>
       </c>
     </row>
@@ -1286,7 +1511,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1378,109 +1603,137 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Thuật toán
 Phòng: LAB01
 (Thực hành)</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
 Môn: Thuật toán
 Phòng: LAB01
 (Thực hành)</t>
         </is>
       </c>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>C2
 (15:00-17:00)</t>
         </is>
       </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -1488,41 +1741,88 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: R101
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
         <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: LAB01
-(Thực hành)</t>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
         </is>
       </c>
     </row>
@@ -1543,7 +1843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1635,109 +1935,137 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Thuật toán
 Phòng: LAB01
 (Thực hành)</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
 Môn: Thuật toán
 Phòng: LAB01
 (Thực hành)</t>
         </is>
       </c>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>C2
 (15:00-17:00)</t>
         </is>
       </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -1745,41 +2073,88 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: R101
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
         <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: LAB01
-(Thực hành)</t>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
         </is>
       </c>
     </row>
@@ -1800,7 +2175,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1892,109 +2267,137 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Thuật toán
 Phòng: LAB01
 (Thực hành)</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
 Môn: Thuật toán
 Phòng: LAB01
 (Thực hành)</t>
         </is>
       </c>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>C2
 (15:00-17:00)</t>
         </is>
       </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -2002,41 +2405,88 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: R101
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
         <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: LAB01
-(Thực hành)</t>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2507,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2149,109 +2599,137 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Thuật toán
 Phòng: LAB01
 (Thực hành)</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
 Môn: Thuật toán
 Phòng: LAB01
 (Thực hành)</t>
         </is>
       </c>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>C2
 (15:00-17:00)</t>
         </is>
       </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -2259,41 +2737,88 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: R101
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
         <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: LAB01
-(Thực hành)</t>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
         </is>
       </c>
     </row>
@@ -2314,7 +2839,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2406,109 +2931,137 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Thuật toán
 Phòng: LAB01
 (Thực hành)</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
 Môn: Thuật toán
 Phòng: LAB01
 (Thực hành)</t>
         </is>
       </c>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>C2
 (15:00-17:00)</t>
         </is>
       </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -2516,41 +3069,88 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: R101
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
         <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: LAB01
-(Thực hành)</t>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
         </is>
       </c>
     </row>
@@ -2571,7 +3171,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2663,109 +3263,137 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Thuật toán
 Phòng: LAB01
 (Thực hành)</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
 Môn: Thuật toán
 Phòng: LAB01
 (Thực hành)</t>
         </is>
       </c>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>C2
 (15:00-17:00)</t>
         </is>
       </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -2773,41 +3401,88 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: R101
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
         <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: LAB01
-(Thực hành)</t>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
         </is>
       </c>
     </row>
@@ -2828,7 +3503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2920,109 +3595,137 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Thuật toán
 Phòng: LAB01
 (Thực hành)</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
 Môn: Thuật toán
 Phòng: LAB01
 (Thực hành)</t>
         </is>
       </c>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>C2
 (15:00-17:00)</t>
         </is>
       </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -3030,41 +3733,88 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: R101
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
         <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: LAB01
-(Thực hành)</t>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
         </is>
       </c>
     </row>
@@ -3085,7 +3835,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3177,109 +3927,137 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Thuật toán
 Phòng: LAB01
 (Thực hành)</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
 Môn: Thuật toán
 Phòng: LAB01
 (Thực hành)</t>
         </is>
       </c>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>C2
 (15:00-17:00)</t>
         </is>
       </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -3287,41 +4065,88 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: R101
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
         <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: LAB01
-(Thực hành)</t>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
         </is>
       </c>
     </row>
@@ -3342,7 +4167,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3434,109 +4259,137 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Thuật toán
 Phòng: LAB01
 (Thực hành)</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
 Môn: Thuật toán
 Phòng: LAB01
 (Thực hành)</t>
         </is>
       </c>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>C2
 (15:00-17:00)</t>
         </is>
       </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -3544,41 +4397,88 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: R101
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
         <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: LAB01
-(Thực hành)</t>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
         </is>
       </c>
     </row>
@@ -3599,7 +4499,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3691,109 +4591,137 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Thuật toán
 Phòng: LAB01
 (Thực hành)</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
 Môn: Thuật toán
 Phòng: LAB01
 (Thực hành)</t>
         </is>
       </c>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>C2
 (15:00-17:00)</t>
         </is>
       </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -3801,41 +4729,88 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: R101
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
         <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: LAB01
-(Thực hành)</t>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
         </is>
       </c>
     </row>
@@ -3856,7 +4831,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3948,109 +4923,137 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Thuật toán
 Phòng: LAB01
 (Thực hành)</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
 Môn: Thuật toán
 Phòng: LAB01
 (Thực hành)</t>
         </is>
       </c>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>C2
 (15:00-17:00)</t>
         </is>
       </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -4058,41 +5061,88 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: R101
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
         <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: LAB01
-(Thực hành)</t>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
         </is>
       </c>
     </row>
@@ -4113,7 +5163,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4205,109 +5255,137 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Thuật toán
 Phòng: LAB01
 (Thực hành)</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
 Môn: Thuật toán
 Phòng: LAB01
 (Thực hành)</t>
         </is>
       </c>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>C2
 (15:00-17:00)</t>
         </is>
       </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -4315,41 +5393,88 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: R101
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
         <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: LAB01
-(Thực hành)</t>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
         </is>
       </c>
     </row>

--- a/timetabling_GA/results/HK2_CT01/TKB_HocKy_GiangVien.xlsx
+++ b/timetabling_GA/results/HK2_CT01/TKB_HocKy_GiangVien.xlsx
@@ -616,28 +616,21 @@
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Cấu trúc dữ liệu
 Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: LAB03
-(Thực hành)</t>
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: R102
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="F8" s="7" t="inlineStr"/>
@@ -657,31 +650,31 @@
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
         </is>
       </c>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
@@ -696,40 +689,33 @@
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Cấu trúc dữ liệu
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL07
+          <t>Lớp: CL02
 Môn: Thuật toán
 Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -745,24 +731,38 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL07
+          <t>Lớp: CL06
 Môn: Thuật toán
 Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H11" s="7" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
@@ -778,24 +778,24 @@
       </c>
       <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL07
-Môn: Cấu trúc dữ liệu
+          <t>Lớp: CL02
+Môn: Thuật toán
 Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
@@ -814,19 +814,19 @@
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL01
+          <t>Lớp: CL07
 Môn: Cấu trúc dữ liệu
 Phòng: LAB03
 (Thực hành)</t>
         </is>
       </c>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Cấu trúc dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
         </is>
       </c>
     </row>
@@ -948,28 +948,21 @@
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Cấu trúc dữ liệu
 Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: LAB03
-(Thực hành)</t>
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: R102
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="F8" s="7" t="inlineStr"/>
@@ -989,31 +982,31 @@
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
         </is>
       </c>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
@@ -1028,40 +1021,33 @@
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Cấu trúc dữ liệu
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL07
+          <t>Lớp: CL02
 Môn: Thuật toán
 Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -1077,24 +1063,38 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL07
+          <t>Lớp: CL06
 Môn: Thuật toán
 Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H11" s="7" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
@@ -1110,24 +1110,24 @@
       </c>
       <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL07
-Môn: Cấu trúc dữ liệu
+          <t>Lớp: CL02
+Môn: Thuật toán
 Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
@@ -1146,19 +1146,19 @@
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL01
+          <t>Lớp: CL07
 Môn: Cấu trúc dữ liệu
 Phòng: LAB03
 (Thực hành)</t>
         </is>
       </c>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Cấu trúc dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
         </is>
       </c>
     </row>
@@ -1280,28 +1280,21 @@
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Cấu trúc dữ liệu
 Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: LAB03
-(Thực hành)</t>
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: R102
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="F8" s="7" t="inlineStr"/>
@@ -1321,31 +1314,31 @@
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
         </is>
       </c>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
@@ -1360,40 +1353,33 @@
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Cấu trúc dữ liệu
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL07
+          <t>Lớp: CL02
 Môn: Thuật toán
 Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -1409,24 +1395,38 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL07
+          <t>Lớp: CL06
 Môn: Thuật toán
 Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H11" s="7" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL07
-Môn: Cấu trúc dữ liệu
+          <t>Lớp: CL02
+Môn: Thuật toán
 Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
@@ -1478,19 +1478,19 @@
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL01
+          <t>Lớp: CL07
 Môn: Cấu trúc dữ liệu
 Phòng: LAB03
 (Thực hành)</t>
         </is>
       </c>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Cấu trúc dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
         </is>
       </c>
     </row>
@@ -1612,28 +1612,21 @@
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Cấu trúc dữ liệu
 Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: LAB03
-(Thực hành)</t>
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: R102
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="F8" s="7" t="inlineStr"/>
@@ -1653,31 +1646,31 @@
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
         </is>
       </c>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
@@ -1692,40 +1685,33 @@
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Cấu trúc dữ liệu
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL07
+          <t>Lớp: CL02
 Môn: Thuật toán
 Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -1741,24 +1727,38 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL07
+          <t>Lớp: CL06
 Môn: Thuật toán
 Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H11" s="7" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
@@ -1774,24 +1774,24 @@
       </c>
       <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL07
-Môn: Cấu trúc dữ liệu
+          <t>Lớp: CL02
+Môn: Thuật toán
 Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
@@ -1810,19 +1810,19 @@
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL01
+          <t>Lớp: CL07
 Môn: Cấu trúc dữ liệu
 Phòng: LAB03
 (Thực hành)</t>
         </is>
       </c>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Cấu trúc dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
         </is>
       </c>
     </row>
@@ -1944,28 +1944,21 @@
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Cấu trúc dữ liệu
 Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: LAB03
-(Thực hành)</t>
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: R102
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="F8" s="7" t="inlineStr"/>
@@ -1985,31 +1978,31 @@
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
         </is>
       </c>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
@@ -2024,40 +2017,33 @@
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Cấu trúc dữ liệu
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL07
+          <t>Lớp: CL02
 Môn: Thuật toán
 Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -2073,24 +2059,38 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL07
+          <t>Lớp: CL06
 Môn: Thuật toán
 Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H11" s="7" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
@@ -2106,24 +2106,24 @@
       </c>
       <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL07
-Môn: Cấu trúc dữ liệu
+          <t>Lớp: CL02
+Môn: Thuật toán
 Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
@@ -2142,19 +2142,19 @@
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL01
+          <t>Lớp: CL07
 Môn: Cấu trúc dữ liệu
 Phòng: LAB03
 (Thực hành)</t>
         </is>
       </c>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Cấu trúc dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
         </is>
       </c>
     </row>
@@ -2276,28 +2276,21 @@
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Cấu trúc dữ liệu
 Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: LAB03
-(Thực hành)</t>
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: R102
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="F8" s="7" t="inlineStr"/>
@@ -2317,31 +2310,31 @@
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
         </is>
       </c>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
@@ -2356,40 +2349,33 @@
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Cấu trúc dữ liệu
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL07
+          <t>Lớp: CL02
 Môn: Thuật toán
 Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -2405,24 +2391,38 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL07
+          <t>Lớp: CL06
 Môn: Thuật toán
 Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H11" s="7" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
@@ -2438,24 +2438,24 @@
       </c>
       <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL07
-Môn: Cấu trúc dữ liệu
+          <t>Lớp: CL02
+Môn: Thuật toán
 Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
@@ -2474,19 +2474,19 @@
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL01
+          <t>Lớp: CL07
 Môn: Cấu trúc dữ liệu
 Phòng: LAB03
 (Thực hành)</t>
         </is>
       </c>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Cấu trúc dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
         </is>
       </c>
     </row>
@@ -2608,28 +2608,21 @@
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Cấu trúc dữ liệu
 Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: LAB03
-(Thực hành)</t>
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: R102
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="F8" s="7" t="inlineStr"/>
@@ -2649,31 +2642,31 @@
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
         </is>
       </c>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
@@ -2688,40 +2681,33 @@
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Cấu trúc dữ liệu
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL07
+          <t>Lớp: CL02
 Môn: Thuật toán
 Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -2737,24 +2723,38 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL07
+          <t>Lớp: CL06
 Môn: Thuật toán
 Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H11" s="7" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
@@ -2770,24 +2770,24 @@
       </c>
       <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL07
-Môn: Cấu trúc dữ liệu
+          <t>Lớp: CL02
+Môn: Thuật toán
 Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
@@ -2806,19 +2806,19 @@
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL01
+          <t>Lớp: CL07
 Môn: Cấu trúc dữ liệu
 Phòng: LAB03
 (Thực hành)</t>
         </is>
       </c>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Cấu trúc dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
         </is>
       </c>
     </row>
@@ -2940,28 +2940,21 @@
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Cấu trúc dữ liệu
 Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: LAB03
-(Thực hành)</t>
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: R102
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="F8" s="7" t="inlineStr"/>
@@ -2981,31 +2974,31 @@
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
         </is>
       </c>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
@@ -3020,40 +3013,33 @@
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Cấu trúc dữ liệu
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL07
+          <t>Lớp: CL02
 Môn: Thuật toán
 Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -3069,24 +3055,38 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL07
+          <t>Lớp: CL06
 Môn: Thuật toán
 Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H11" s="7" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
@@ -3102,24 +3102,24 @@
       </c>
       <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL07
-Môn: Cấu trúc dữ liệu
+          <t>Lớp: CL02
+Môn: Thuật toán
 Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
@@ -3138,19 +3138,19 @@
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL01
+          <t>Lớp: CL07
 Môn: Cấu trúc dữ liệu
 Phòng: LAB03
 (Thực hành)</t>
         </is>
       </c>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Cấu trúc dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
         </is>
       </c>
     </row>
@@ -3272,28 +3272,21 @@
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Cấu trúc dữ liệu
 Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: LAB03
-(Thực hành)</t>
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: R102
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="F8" s="7" t="inlineStr"/>
@@ -3313,31 +3306,31 @@
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
         </is>
       </c>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
@@ -3352,40 +3345,33 @@
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Cấu trúc dữ liệu
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL07
+          <t>Lớp: CL02
 Môn: Thuật toán
 Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -3401,24 +3387,38 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL07
+          <t>Lớp: CL06
 Môn: Thuật toán
 Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H11" s="7" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
@@ -3434,24 +3434,24 @@
       </c>
       <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL07
-Môn: Cấu trúc dữ liệu
+          <t>Lớp: CL02
+Môn: Thuật toán
 Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
@@ -3470,19 +3470,19 @@
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL01
+          <t>Lớp: CL07
 Môn: Cấu trúc dữ liệu
 Phòng: LAB03
 (Thực hành)</t>
         </is>
       </c>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Cấu trúc dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
         </is>
       </c>
     </row>
@@ -3604,28 +3604,21 @@
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Cấu trúc dữ liệu
 Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: LAB03
-(Thực hành)</t>
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: R102
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="F8" s="7" t="inlineStr"/>
@@ -3645,31 +3638,31 @@
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
         </is>
       </c>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
@@ -3684,40 +3677,33 @@
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Cấu trúc dữ liệu
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL07
+          <t>Lớp: CL02
 Môn: Thuật toán
 Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -3733,24 +3719,38 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL07
+          <t>Lớp: CL06
 Môn: Thuật toán
 Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H11" s="7" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
@@ -3766,24 +3766,24 @@
       </c>
       <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL07
-Môn: Cấu trúc dữ liệu
+          <t>Lớp: CL02
+Môn: Thuật toán
 Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
@@ -3802,19 +3802,19 @@
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL01
+          <t>Lớp: CL07
 Môn: Cấu trúc dữ liệu
 Phòng: LAB03
 (Thực hành)</t>
         </is>
       </c>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Cấu trúc dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
         </is>
       </c>
     </row>
@@ -3936,28 +3936,21 @@
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Cấu trúc dữ liệu
 Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: LAB03
-(Thực hành)</t>
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: R102
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="F8" s="7" t="inlineStr"/>
@@ -3977,31 +3970,31 @@
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
         </is>
       </c>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
@@ -4016,40 +4009,33 @@
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Cấu trúc dữ liệu
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL07
+          <t>Lớp: CL02
 Môn: Thuật toán
 Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -4065,24 +4051,38 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL07
+          <t>Lớp: CL06
 Môn: Thuật toán
 Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H11" s="7" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
@@ -4098,24 +4098,24 @@
       </c>
       <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL07
-Môn: Cấu trúc dữ liệu
+          <t>Lớp: CL02
+Môn: Thuật toán
 Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
@@ -4134,19 +4134,19 @@
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL01
+          <t>Lớp: CL07
 Môn: Cấu trúc dữ liệu
 Phòng: LAB03
 (Thực hành)</t>
         </is>
       </c>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Cấu trúc dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
         </is>
       </c>
     </row>
@@ -4268,28 +4268,21 @@
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Cấu trúc dữ liệu
 Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: LAB03
-(Thực hành)</t>
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: R102
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="F8" s="7" t="inlineStr"/>
@@ -4309,31 +4302,31 @@
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
         </is>
       </c>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
@@ -4348,40 +4341,33 @@
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Cấu trúc dữ liệu
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL07
+          <t>Lớp: CL02
 Môn: Thuật toán
 Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -4397,24 +4383,38 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL07
+          <t>Lớp: CL06
 Môn: Thuật toán
 Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H11" s="7" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
@@ -4430,24 +4430,24 @@
       </c>
       <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL07
-Môn: Cấu trúc dữ liệu
+          <t>Lớp: CL02
+Môn: Thuật toán
 Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
@@ -4466,19 +4466,19 @@
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL01
+          <t>Lớp: CL07
 Môn: Cấu trúc dữ liệu
 Phòng: LAB03
 (Thực hành)</t>
         </is>
       </c>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Cấu trúc dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
         </is>
       </c>
     </row>
@@ -4600,28 +4600,21 @@
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Cấu trúc dữ liệu
 Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: LAB03
-(Thực hành)</t>
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: R102
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="F8" s="7" t="inlineStr"/>
@@ -4641,31 +4634,31 @@
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
         </is>
       </c>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
@@ -4680,40 +4673,33 @@
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Cấu trúc dữ liệu
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL07
+          <t>Lớp: CL02
 Môn: Thuật toán
 Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -4729,24 +4715,38 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL07
+          <t>Lớp: CL06
 Môn: Thuật toán
 Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H11" s="7" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
@@ -4762,24 +4762,24 @@
       </c>
       <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL07
-Môn: Cấu trúc dữ liệu
+          <t>Lớp: CL02
+Môn: Thuật toán
 Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
@@ -4798,19 +4798,19 @@
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL01
+          <t>Lớp: CL07
 Môn: Cấu trúc dữ liệu
 Phòng: LAB03
 (Thực hành)</t>
         </is>
       </c>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Cấu trúc dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
         </is>
       </c>
     </row>
@@ -4932,28 +4932,21 @@
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Cấu trúc dữ liệu
 Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: LAB03
-(Thực hành)</t>
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: R102
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="F8" s="7" t="inlineStr"/>
@@ -4973,31 +4966,31 @@
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
         </is>
       </c>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
@@ -5012,40 +5005,33 @@
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Cấu trúc dữ liệu
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL07
+          <t>Lớp: CL02
 Môn: Thuật toán
 Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -5061,24 +5047,38 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL07
+          <t>Lớp: CL06
 Môn: Thuật toán
 Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H11" s="7" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
@@ -5094,24 +5094,24 @@
       </c>
       <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL07
-Môn: Cấu trúc dữ liệu
+          <t>Lớp: CL02
+Môn: Thuật toán
 Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
@@ -5130,19 +5130,19 @@
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL01
+          <t>Lớp: CL07
 Môn: Cấu trúc dữ liệu
 Phòng: LAB03
 (Thực hành)</t>
         </is>
       </c>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Cấu trúc dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
         </is>
       </c>
     </row>
@@ -5264,28 +5264,21 @@
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Cấu trúc dữ liệu
 Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: LAB03
-(Thực hành)</t>
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: R102
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="F8" s="7" t="inlineStr"/>
@@ -5305,31 +5298,31 @@
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cấu trúc dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
         </is>
       </c>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cấu trúc dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Thuật toán
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
@@ -5344,40 +5337,33 @@
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Cấu trúc dữ liệu
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL07
+          <t>Lớp: CL02
 Môn: Thuật toán
 Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Thuật toán
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -5393,24 +5379,38 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL07
+          <t>Lớp: CL06
 Môn: Thuật toán
 Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Thuật toán
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H11" s="7" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Thuật toán
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
@@ -5426,24 +5426,24 @@
       </c>
       <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Thuật toán
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="9" t="inlineStr">
         <is>
-          <t>Lớp: CL07
-Môn: Cấu trúc dữ liệu
+          <t>Lớp: CL02
+Môn: Thuật toán
 Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cấu trúc dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
@@ -5462,19 +5462,19 @@
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL01
+          <t>Lớp: CL07
 Môn: Cấu trúc dữ liệu
 Phòng: LAB03
 (Thực hành)</t>
         </is>
       </c>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Cấu trúc dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cấu trúc dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
         </is>
       </c>
     </row>
